--- a/prodinfo/mea/output/res20251222.xlsx
+++ b/prodinfo/mea/output/res20251222.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,146 +426,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>Huawei Pura 80, 256 GB, 12 GB RAM, Gold, 4G LTE, Huawei Kirin 9010S</v>
-      </c>
-      <c r="B2" t="str">
-        <v>1999.1304</v>
-      </c>
-      <c r="C2" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-664781.html</v>
-      </c>
       <c r="D2" t="str">
-        <v>Huawei</v>
-      </c>
-      <c r="E2" t="str">
-        <v>Pura 80</v>
-      </c>
-      <c r="F2" t="str">
-        <v>256 GB</v>
+        <v>2025-12-22 21:44:00</v>
       </c>
       <c r="G2" t="str">
-        <v>2025-12-22 08:30:50</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Huawei Pura 80 Pro, 512 GB, 12 GB RAM, Glazed Black, 4G LTE, Huawei Kirin 9020</v>
-      </c>
-      <c r="B3" t="str">
-        <v>2520.8696</v>
-      </c>
-      <c r="C3" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662079.html</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Huawei</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Pura 80 Pro</v>
-      </c>
-      <c r="F3" t="str">
-        <v>512 GB</v>
-      </c>
-      <c r="G3" t="str">
-        <v>2025-12-22 08:30:58</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Huawei Pura 80 Ultra, 512 GB, 16 GB RAM, Golden Black, 4G LTE, Huawei Kirin 9020</v>
-      </c>
-      <c r="B4" t="str">
-        <v>3564.3478</v>
-      </c>
-      <c r="C4" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662091.html</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Huawei</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Pura 80 Ultra</v>
-      </c>
-      <c r="F4" t="str">
-        <v>512 GB</v>
-      </c>
-      <c r="G4" t="str">
-        <v>2025-12-22 08:31:03</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Samsung Galaxy S25, 256 GB, 12 GB RAM, Navy, 5G, Snapdragon 8 Elite</v>
-      </c>
-      <c r="B5" t="str">
-        <v>2260</v>
-      </c>
-      <c r="C5" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-651003.html</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Samsung</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Galaxy S25</v>
-      </c>
-      <c r="F5" t="str">
-        <v>256 GB</v>
-      </c>
-      <c r="G5" t="str">
-        <v>2025-12-22 08:31:10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Samsung Galaxy S25 Edge, 512 GB, 12 GB RAM, Titanium Jet Black, 5G, Snapdragon 8 Elite</v>
-      </c>
-      <c r="B6" t="str">
-        <v>3042.6087</v>
-      </c>
-      <c r="C6" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-edge-smartphones-657517.html</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Samsung</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Galaxy S25 Edge</v>
-      </c>
-      <c r="F6" t="str">
-        <v>512 GB</v>
-      </c>
-      <c r="G6" t="str">
-        <v>2025-12-22 08:31:15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>Samsung Galaxy S25 Ultra, 256 GB, 12 GB RAM, Titanium Silver Blue, 5G, Snapdragon 8 Elite</v>
-      </c>
-      <c r="B7" t="str">
-        <v>3303.4783</v>
-      </c>
-      <c r="C7" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-ultra-smartphones-650944.html</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Samsung</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Galaxy S25 Ultra</v>
-      </c>
-      <c r="F7" t="str">
-        <v>256 GB</v>
-      </c>
-      <c r="G7" t="str">
-        <v>2025-12-22 08:31:21</v>
+        <v>2025-12-22 21:44:00</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
   </ignoredErrors>
 </worksheet>
 </file>